--- a/data/trans_camb/P16A_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.636430068053346</v>
+        <v>-4.391785375567837</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.596034426785596</v>
+        <v>-4.597981124264731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.854025395283443</v>
+        <v>7.069817377386128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.988123241520346</v>
+        <v>1.820711821987022</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.216693390663234</v>
+        <v>0.5681069541357268</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.026456733526161</v>
+        <v>6.286086166631653</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.159427653598567</v>
+        <v>-0.8675213599220251</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.402350314416949</v>
+        <v>-1.576990736956378</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>7.533271384361733</v>
+        <v>7.532739516985481</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.431844923099329</v>
+        <v>1.465721901542799</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.36362736974103</v>
+        <v>1.023424244102692</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.56878292143033</v>
+        <v>15.98176198003114</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.14263107967807</v>
+        <v>9.200412009204499</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.965623636303823</v>
+        <v>8.039120855759903</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>14.63726356996977</v>
+        <v>14.25248500877749</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.884762737546195</v>
+        <v>3.992901455000392</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.356173234683414</v>
+        <v>3.238932044525884</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.64815453167447</v>
+        <v>13.34227763822516</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.06200975173050288</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.7414615628530988</v>
+        <v>0.7414615628530985</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3918905249697808</v>
+        <v>-0.3844232784401176</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3939821534894986</v>
+        <v>-0.4063309883737842</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5826737417980739</v>
+        <v>0.6304879718488038</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1058056414744058</v>
+        <v>0.0957639246167943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06033580940461832</v>
+        <v>0.03173372536208359</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3736071893983171</v>
+        <v>0.3366266573080868</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.0744443496142531</v>
+        <v>-0.05538317923476218</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09166505493620695</v>
+        <v>-0.1028629252727445</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4756559941021514</v>
+        <v>0.4737084270234341</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1995525462403402</v>
+        <v>0.1972490259690045</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1814384045587574</v>
+        <v>0.1418593514982077</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.936644522916292</v>
+        <v>2.079458886982811</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6078526286671392</v>
+        <v>0.6110489000408339</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.525365769035946</v>
+        <v>0.5341506891756158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9619223920602982</v>
+        <v>0.9153500508716591</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3025999373042383</v>
+        <v>0.3086129233690217</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2630745841250336</v>
+        <v>0.258580275643614</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.083800410628344</v>
+        <v>1.024339327586398</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>3.192818614914794</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.909403315086857</v>
+        <v>9.909403315086859</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>3.348735237450104</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.225953512493254</v>
+        <v>0.1334338365326841</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5937642449073152</v>
+        <v>0.6969322938453403</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.365553295056359</v>
+        <v>2.544804123520682</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9625160015694193</v>
+        <v>1.192278622463361</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2508860718692129</v>
+        <v>0.3069289332978801</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.240156858509083</v>
+        <v>7.188356332480677</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.547634729404193</v>
+        <v>1.551052864752902</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.296541985926564</v>
+        <v>1.269684230738105</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.869798764896545</v>
+        <v>5.985449925022539</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.178415217915701</v>
+        <v>4.317448842602539</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.454790117071483</v>
+        <v>4.711094364387201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.559393228519547</v>
+        <v>6.511637268133343</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.927575814063467</v>
+        <v>6.796896569022451</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.415926881909787</v>
+        <v>5.975892563827941</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.47453366310586</v>
+        <v>12.68908700822784</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.169320602694158</v>
+        <v>5.140379122696538</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.796152467092829</v>
+        <v>4.921401958339174</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.264865224095875</v>
+        <v>9.394155192602012</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.03433332455688885</v>
+        <v>0.002567781118436197</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1281196853615868</v>
+        <v>0.1230148054938495</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5022939690315413</v>
+        <v>0.5158897637370766</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.09411405655729183</v>
+        <v>0.1047807038582759</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0165573509237911</v>
+        <v>0.02257640544195822</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.636980971114143</v>
+        <v>0.6373040899717864</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2001850144712361</v>
+        <v>0.1926086478624339</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1658299122053011</v>
+        <v>0.1622912004100198</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.7419076945299169</v>
+        <v>0.7596152367246344</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.395633251403204</v>
+        <v>1.356026672265361</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.468567383255519</v>
+        <v>1.54569485626528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.228224745313223</v>
+        <v>2.117760816259413</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8120683685490255</v>
+        <v>0.7836338281259222</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7477335844360302</v>
+        <v>0.6941834549242761</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.478397808177446</v>
+        <v>1.515312498636503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8710597050608552</v>
+        <v>0.8482805044426202</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7954441776017951</v>
+        <v>0.83927179214777</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.526652099554673</v>
+        <v>1.552316386118878</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>3.659046639659115</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.671626772201387</v>
+        <v>6.671626772201391</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.192161284127545</v>
@@ -1092,7 +1092,7 @@
         <v>2.337669723350456</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.853350834452489</v>
+        <v>4.85335083445249</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2234660762080499</v>
+        <v>0.1353965497765619</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8693122146158052</v>
+        <v>-0.6955402334989542</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.10885281423126</v>
+        <v>1.125189386534551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.328065728867948</v>
+        <v>1.167341714081273</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.785432960863359</v>
+        <v>0.8753650913250586</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.20133210727828</v>
+        <v>4.168483671137695</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.6459873313897</v>
+        <v>1.342718656250724</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6776236212162123</v>
+        <v>0.5740355262684319</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.409373496832512</v>
+        <v>3.314941493707885</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.242133828311176</v>
+        <v>3.988548543270135</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.817138473040559</v>
+        <v>2.8712317184888</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.54109430045439</v>
+        <v>4.500448410469849</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.743197555842887</v>
+        <v>7.148038276736925</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.635869066453309</v>
+        <v>6.686528598544628</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.017479462037805</v>
+        <v>9.042538880912097</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.931462128489456</v>
+        <v>4.903573183353339</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.240096566260766</v>
+        <v>3.974602005957675</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.468318611588574</v>
+        <v>6.372755468418087</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.4737278750790446</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8637593027264256</v>
+        <v>0.8637593027264261</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.580799496767176</v>
@@ -1197,7 +1197,7 @@
         <v>0.425328571485663</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.8830455203816485</v>
+        <v>0.8830455203816489</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04931250713409441</v>
+        <v>-0.03444751706549226</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2236790445202082</v>
+        <v>-0.1893880349804381</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2412915954030561</v>
+        <v>0.2266431558979696</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1467762772744814</v>
+        <v>0.1268817513229606</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.08348848590195787</v>
+        <v>0.09793967596657653</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4385109394034536</v>
+        <v>0.4576756509656695</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2705185432283478</v>
+        <v>0.2129812754741492</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1098399994414219</v>
+        <v>0.08962955913633361</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5537611303624901</v>
+        <v>0.5286264969287813</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.499020139171214</v>
+        <v>1.368835539751214</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9709307430207853</v>
+        <v>0.9983719170581562</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.623564971864109</v>
+        <v>1.55635643165805</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.019483086965388</v>
+        <v>1.094393256051468</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.975211151309035</v>
+        <v>1.020022683836157</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.406484640373129</v>
+        <v>1.370441993931292</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.07368685061767</v>
+        <v>1.004449766444586</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8658903784066891</v>
+        <v>0.7974218457262279</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.379352399902575</v>
+        <v>1.346475825525582</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.4617213164909692</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.6424569315708916</v>
+        <v>0.6424569315708922</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.695136754147771</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8035424038206882</v>
+        <v>-0.8159419840014757</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.29810904219455</v>
+        <v>-2.417808781456771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.640861790781255</v>
+        <v>-2.221761491112618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.39807172580718</v>
+        <v>-3.62509234081986</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.038787660257956</v>
+        <v>-3.756220742534198</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8911487823887478</v>
+        <v>-1.362096740624868</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.9252358815689544</v>
+        <v>-1.043468566719238</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.574741363387666</v>
+        <v>-1.643108695903455</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-0.2561174452807893</v>
+        <v>-0.1923994731249853</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.44117020568535</v>
+        <v>5.650583594625499</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.34581480875948</v>
+        <v>3.480806465732429</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.081093204241527</v>
+        <v>2.853162148237003</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.671756327492945</v>
+        <v>4.797018145114349</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.73193338988381</v>
+        <v>4.436817614242903</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>6.285514315371314</v>
+        <v>5.787874763282511</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.376322695215141</v>
+        <v>4.076557192442289</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.385353673094259</v>
+        <v>3.239432189470217</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.78986574462936</v>
+        <v>4.017425414492172</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.09824035604853193</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1366954382419252</v>
+        <v>0.1366954382419254</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08066267426859927</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1693108820101182</v>
+        <v>-0.1725762757057025</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3832976887190193</v>
+        <v>-0.395554233898796</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2680630019115846</v>
+        <v>-0.327260024762193</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.322871990473249</v>
+        <v>-0.3338581456653315</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2913064032611563</v>
+        <v>-0.3231237590200187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.08277412243264443</v>
+        <v>-0.1100722026361304</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1376569100269372</v>
+        <v>-0.1371769742443019</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2096373405409107</v>
+        <v>-0.2115223195016216</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.03538495449631562</v>
+        <v>-0.02200931911316364</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.686608705927611</v>
+        <v>1.634450256888399</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.012711650958383</v>
+        <v>1.092933884246982</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.9809732246153479</v>
+        <v>0.881879873479418</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7299429515944514</v>
+        <v>0.7910141414313147</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7513832726084875</v>
+        <v>0.6983706508993875</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.081137423560818</v>
+        <v>0.9213418261999624</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8229589531982081</v>
+        <v>0.7754581286353845</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6661736726107709</v>
+        <v>0.6180679936221873</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7732161469848643</v>
+        <v>0.8299585830095596</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.6082183398158537</v>
+        <v>0.5989826335531673</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2558901408907523</v>
+        <v>0.1656122740547215</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.511831131684939</v>
+        <v>2.6113196135154</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.72855659947977</v>
+        <v>2.677455096265192</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.375910519944606</v>
+        <v>2.340155336081569</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.884881775319702</v>
+        <v>4.784958450123522</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.103165349888811</v>
+        <v>2.100533777803817</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.694524691856144</v>
+        <v>1.803230114510342</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.21520354757389</v>
+        <v>4.334325073542122</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.983326064042131</v>
+        <v>2.992533797023363</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.479370085385603</v>
+        <v>2.452536456520499</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.977994325430474</v>
+        <v>5.065925076347961</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.997835036537876</v>
+        <v>5.997053616505004</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.602704256454705</v>
+        <v>5.703037767021129</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.922840270964924</v>
+        <v>7.860602400853558</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.138854047358642</v>
+        <v>4.189742712338369</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.834160291859893</v>
+        <v>3.669326784525147</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.177203186007785</v>
+        <v>6.151976543758442</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1098019041128944</v>
+        <v>0.1091567110948209</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.04593273196990776</v>
+        <v>0.02893455503110494</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4555814300388062</v>
+        <v>0.4837821165269791</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2293597686045081</v>
+        <v>0.225613156015624</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2011969498603476</v>
+        <v>0.1994786315541478</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.398577174955259</v>
+        <v>0.4003028681589472</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2491519428394</v>
+        <v>0.2465788664014434</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2014479139121086</v>
+        <v>0.2079994740671443</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4938077702418772</v>
+        <v>0.5096798816003248</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6772758947437338</v>
+        <v>0.6845941427624783</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5900933544879755</v>
+        <v>0.5669029030325469</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.174791484142325</v>
+        <v>1.150149147384266</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5711844019761828</v>
+        <v>0.5809165977202992</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5464966291257439</v>
+        <v>0.5502841534448084</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7648468674947461</v>
+        <v>0.7630148105466503</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5505096761648325</v>
+        <v>0.5526811760039928</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5091148517248242</v>
+        <v>0.482406182583215</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8305755816882796</v>
+        <v>0.8090217441201472</v>
       </c>
     </row>
     <row r="34">
